--- a/BA_events.xlsx
+++ b/BA_events.xlsx
@@ -453,14 +453,14 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.86"/>
@@ -4487,7 +4487,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR102"/>
+  <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4497,7 +4497,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="1" style="0" width="10.86"/>
   </cols>
